--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,33 +561,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.675209</v>
+        <v>3.183143</v>
       </c>
       <c r="N2">
-        <v>5.350417999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O2">
-        <v>0.6038885578943551</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5040571546736343</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>108.339907826824</v>
+        <v>168.7606749237135</v>
       </c>
       <c r="R2">
-        <v>433.359631307296</v>
+        <v>675.042699694854</v>
       </c>
       <c r="S2">
-        <v>0.2619836105108839</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="T2">
-        <v>0.1788911937230294</v>
+        <v>0.7041603619966643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>6.464838333333333</v>
+      </c>
+      <c r="H3">
+        <v>19.394515</v>
+      </c>
+      <c r="I3">
+        <v>0.09075212572810222</v>
+      </c>
+      <c r="J3">
+        <v>0.1287968964663749</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>40.497736</v>
-      </c>
-      <c r="H3">
-        <v>80.99547200000001</v>
-      </c>
-      <c r="I3">
-        <v>0.4338277436889532</v>
-      </c>
-      <c r="J3">
-        <v>0.3549025979779167</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.754762333333333</v>
+        <v>3.183143</v>
       </c>
       <c r="N3">
-        <v>5.264286999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O3">
-        <v>0.3961114421056449</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4959428453263656</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>71.06390171807733</v>
+        <v>20.57850488688167</v>
       </c>
       <c r="R3">
-        <v>426.383410308464</v>
+        <v>123.47102932129</v>
       </c>
       <c r="S3">
-        <v>0.1718441331780693</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="T3">
-        <v>0.1760114042548873</v>
+        <v>0.1287968964663749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.464838333333333</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H4">
-        <v>19.394515</v>
+        <v>2.036719</v>
       </c>
       <c r="I4">
-        <v>0.06925390168635236</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J4">
-        <v>0.08498208097388053</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.675209</v>
+        <v>3.183143</v>
       </c>
       <c r="N4">
-        <v>5.350417999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O4">
-        <v>0.6038885578943551</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5040571546736343</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>17.29479369287833</v>
+        <v>2.161055942605667</v>
       </c>
       <c r="R4">
-        <v>103.76876215727</v>
+        <v>12.966335655634</v>
       </c>
       <c r="S4">
-        <v>0.04182163881792877</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="T4">
-        <v>0.04283582593393861</v>
+        <v>0.01352563269430035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.464838333333333</v>
+        <v>10.1095025</v>
       </c>
       <c r="H5">
-        <v>19.394515</v>
+        <v>20.219005</v>
       </c>
       <c r="I5">
-        <v>0.06925390168635236</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J5">
-        <v>0.08498208097388053</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.754762333333333</v>
+        <v>3.183143</v>
       </c>
       <c r="N5">
-        <v>5.264286999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O5">
-        <v>0.3961114421056449</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4959428453263656</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>11.34425479842277</v>
+        <v>32.1799921163575</v>
       </c>
       <c r="R5">
-        <v>102.098293185805</v>
+        <v>128.71996846543</v>
       </c>
       <c r="S5">
-        <v>0.02743226286842359</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="T5">
-        <v>0.04214625503994191</v>
+        <v>0.1342722462324073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7642823333333334</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H6">
-        <v>2.292847</v>
+        <v>1.586671</v>
       </c>
       <c r="I6">
-        <v>0.008187294228282994</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J6">
-        <v>0.01004670183372562</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.675209</v>
+        <v>3.183143</v>
       </c>
       <c r="N6">
-        <v>5.350417999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O6">
-        <v>0.6038885578943551</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5040571546736343</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>2.044614976674333</v>
+        <v>1.683533562317667</v>
       </c>
       <c r="R6">
-        <v>12.267689860046</v>
+        <v>10.101201373906</v>
       </c>
       <c r="S6">
-        <v>0.004944213304574595</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="T6">
-        <v>0.005064111940162122</v>
+        <v>0.01053691213795238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,418 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7642823333333334</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H7">
-        <v>2.292847</v>
+        <v>1.311262</v>
       </c>
       <c r="I7">
-        <v>0.008187294228282994</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J7">
-        <v>0.01004670183372562</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.754762333333333</v>
+        <v>3.183143</v>
       </c>
       <c r="N7">
-        <v>5.264286999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O7">
-        <v>0.3961114421056449</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.4959428453263656</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.341133850565444</v>
+        <v>1.391311485488667</v>
       </c>
       <c r="R7">
-        <v>12.070204655089</v>
+        <v>8.347868912932002</v>
       </c>
       <c r="S7">
-        <v>0.0032430809237084</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="T7">
-        <v>0.004982589893563501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>11.332808</v>
-      </c>
-      <c r="H8">
-        <v>22.665616</v>
-      </c>
-      <c r="I8">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J8">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.675209</v>
-      </c>
-      <c r="N8">
-        <v>5.350417999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.6038885578943551</v>
-      </c>
-      <c r="P8">
-        <v>0.5040571546736343</v>
-      </c>
-      <c r="Q8">
-        <v>30.317629956872</v>
-      </c>
-      <c r="R8">
-        <v>121.270519827488</v>
-      </c>
-      <c r="S8">
-        <v>0.07331298611523936</v>
-      </c>
-      <c r="T8">
-        <v>0.05006056514749115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.332808</v>
-      </c>
-      <c r="H9">
-        <v>22.665616</v>
-      </c>
-      <c r="I9">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J9">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.754762333333333</v>
-      </c>
-      <c r="N9">
-        <v>5.264286999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.3961114421056449</v>
-      </c>
-      <c r="P9">
-        <v>0.4959428453263656</v>
-      </c>
-      <c r="Q9">
-        <v>19.88638460929866</v>
-      </c>
-      <c r="R9">
-        <v>119.318307655792</v>
-      </c>
-      <c r="S9">
-        <v>0.04808852937441959</v>
-      </c>
-      <c r="T9">
-        <v>0.04925469044074514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>33.754358</v>
-      </c>
-      <c r="H10">
-        <v>101.263074</v>
-      </c>
-      <c r="I10">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J10">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.675209</v>
-      </c>
-      <c r="N10">
-        <v>5.350417999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.6038885578943551</v>
-      </c>
-      <c r="P10">
-        <v>0.5040571546736343</v>
-      </c>
-      <c r="Q10">
-        <v>90.29996231082198</v>
-      </c>
-      <c r="R10">
-        <v>541.7997738649319</v>
-      </c>
-      <c r="S10">
-        <v>0.218360072753621</v>
-      </c>
-      <c r="T10">
-        <v>0.2236553691288256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>33.754358</v>
-      </c>
-      <c r="H11">
-        <v>101.263074</v>
-      </c>
-      <c r="I11">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J11">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.754762333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.264286999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.3961114421056449</v>
-      </c>
-      <c r="P11">
-        <v>0.4959428453263656</v>
-      </c>
-      <c r="Q11">
-        <v>59.23087600424865</v>
-      </c>
-      <c r="R11">
-        <v>533.0778840382379</v>
-      </c>
-      <c r="S11">
-        <v>0.1432299423230037</v>
-      </c>
-      <c r="T11">
-        <v>0.2200549662073278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.535784</v>
-      </c>
-      <c r="H12">
-        <v>1.607352</v>
-      </c>
-      <c r="I12">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J12">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.675209</v>
-      </c>
-      <c r="N12">
-        <v>5.350417999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.6038885578943551</v>
-      </c>
-      <c r="P12">
-        <v>0.5040571546736343</v>
-      </c>
-      <c r="Q12">
-        <v>1.433334178856</v>
-      </c>
-      <c r="R12">
-        <v>8.600005073136</v>
-      </c>
-      <c r="S12">
-        <v>0.003466036392107534</v>
-      </c>
-      <c r="T12">
-        <v>0.003550088800187482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.535784</v>
-      </c>
-      <c r="H13">
-        <v>1.607352</v>
-      </c>
-      <c r="I13">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J13">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.754762333333333</v>
-      </c>
-      <c r="N13">
-        <v>5.264286999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.3961114421056449</v>
-      </c>
-      <c r="P13">
-        <v>0.4959428453263656</v>
-      </c>
-      <c r="Q13">
-        <v>0.9401735820026667</v>
-      </c>
-      <c r="R13">
-        <v>8.461562238023999</v>
-      </c>
-      <c r="S13">
-        <v>0.002273493438020306</v>
-      </c>
-      <c r="T13">
-        <v>0.003492939489900146</v>
+        <v>0.008707950472300633</v>
       </c>
     </row>
   </sheetData>
